--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.102220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.102220.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3259,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4447,12 +4447,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5171,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6515,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6683,12 +6683,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6767,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7069,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8731,12 +8731,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8773,12 +8773,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8857,12 +8857,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8985,12 +8985,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9581,12 +9581,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9623,12 +9623,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9665,12 +9665,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10215,12 +10215,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10303,12 +10303,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10639,12 +10639,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10765,12 +10765,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11185,12 +11185,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11645,12 +11645,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12315,12 +12315,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12397,12 +12397,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12609,12 +12609,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13447,12 +13447,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13909,12 +13909,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14285,12 +14285,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15209,12 +15209,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15753,12 +15753,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
